--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/ValueSet/GenomeEntityType</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/GenomeEntityType</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>ORF</t>
+  </si>
+  <si>
+    <t>C0439673</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t/>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,15 +477,23 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-GenomeEntityType.xlsx
+++ b/output/ValueSet-GenomeEntityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
